--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117998.7026297815</v>
+        <v>20803182.8726367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117998.7026297815</v>
+        <v>20803182.8726367</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5238.287315528936</v>
+        <v>527372.6715046667</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5238.287315528936</v>
+        <v>527372.6715046667</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112109918.263776</v>
+        <v>45177700.70197725</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8595.192179221805</v>
+        <v>997542.346796955</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16636.46895111397</v>
+        <v>1907111.526215844</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24588.1202608238</v>
+        <v>2816680.705634736</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32870.49895504173</v>
+        <v>3728438.517648627</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41102.72754286978</v>
+        <v>4639949.892467812</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49305.25381123526</v>
+        <v>5551461.267286997</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57647.34919313915</v>
+        <v>6462972.64210617</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65802.55802401117</v>
+        <v>7374484.01692529</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73838.36489749221</v>
+        <v>8280387.271773625</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81865.22719432681</v>
+        <v>9190256.98856825</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89889.00815986576</v>
+        <v>10099826.1679871</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>97669.79176890643</v>
+        <v>11008159.37118419</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>105516.2180669324</v>
+        <v>11916652.06538603</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>113788.4671716043</v>
+        <v>12770612.82850497</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>121951.5726551856</v>
+        <v>13625467.87524456</v>
       </c>
     </row>
   </sheetData>
@@ -27043,22 +27043,22 @@
         <v>5.519634775118902e-11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>360.9999999999448</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>395</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>91</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
